--- a/ProjectManagementPlan.xlsx
+++ b/ProjectManagementPlan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271585C7-B8D1-4FE5-B1AE-54C3157E4A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52EF175A-9D87-4E1C-B163-4B27DE2A2E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="146">
   <si>
     <t>Project Management Plan</t>
   </si>
@@ -290,7 +290,7 @@
     <t>Update ND based on Feedback</t>
   </si>
   <si>
-    <t>Explain Code Snippets</t>
+    <t>Explain Code Snippets on ETL</t>
   </si>
   <si>
     <t>Discuss Visualizations</t>
@@ -299,36 +299,57 @@
     <t>Finalize Visualizations</t>
   </si>
   <si>
+    <t>Draft Dashboard Napkin Drawings</t>
+  </si>
+  <si>
+    <t>Receive Feedback on Dashboard Napkin Drawings</t>
+  </si>
+  <si>
+    <t>Update Feedback Visualization Dashboard ND</t>
+  </si>
+  <si>
+    <t>Wednesday (5/18)</t>
+  </si>
+  <si>
+    <t>(5/18)</t>
+  </si>
+  <si>
+    <t>Create PowerBI Dashboard Visualizations</t>
+  </si>
+  <si>
+    <t>Continue ETL Report</t>
+  </si>
+  <si>
+    <t>Discuss ETL Report</t>
+  </si>
+  <si>
+    <t>Finish ERD</t>
+  </si>
+  <si>
+    <t>1 HRS</t>
+  </si>
+  <si>
+    <t>Thursday (5/19)</t>
+  </si>
+  <si>
     <t>Discuss Technical Report</t>
   </si>
   <si>
-    <t>Wednesday (5/18)</t>
-  </si>
-  <si>
-    <t>Finalize ETL Report</t>
-  </si>
-  <si>
-    <t>(5/18)</t>
-  </si>
-  <si>
-    <t>Repeat ETL Process</t>
-  </si>
-  <si>
-    <t>Discuss ETL Report</t>
-  </si>
-  <si>
-    <t>Begin Technical Report Rough Draft</t>
-  </si>
-  <si>
-    <t>Thursday (5/19)</t>
-  </si>
-  <si>
-    <t>Draft Backstory for Technical Report</t>
-  </si>
-  <si>
     <t>(5/19)</t>
   </si>
   <si>
+    <t>Work on Python connection in Dashboard</t>
+  </si>
+  <si>
+    <t>Continue and Finish ETL</t>
+  </si>
+  <si>
+    <t>Continue Work on Dashboard</t>
+  </si>
+  <si>
+    <t>Begin Draft of Technical Report</t>
+  </si>
+  <si>
     <t>Discuss Backstory Technical Report</t>
   </si>
   <si>
@@ -347,6 +368,12 @@
     <t>(5/20)</t>
   </si>
   <si>
+    <t>Python In Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalize Dashboard </t>
+  </si>
+  <si>
     <t>Finalize Research Section</t>
   </si>
   <si>
@@ -404,7 +431,7 @@
     <t>(5/25)</t>
   </si>
   <si>
-    <t>Practice Slides</t>
+    <t>Practice Slides/Presentation Dry Run</t>
   </si>
   <si>
     <t>Check Rubric and Compare</t>
@@ -444,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,6 +572,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -788,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -945,7 +993,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -953,12 +1000,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -986,9 +1027,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,82 +1037,109 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J103"/>
+  <dimension ref="B1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1414,85 +1479,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="15.75">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="100" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1514,7 +1579,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="15.75">
-      <c r="B8" s="85"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1534,7 +1599,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:10" ht="15.75">
-      <c r="B9" s="85"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
@@ -1554,17 +1619,17 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:10" ht="15.75">
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="97"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="15.75">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="100" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -1586,7 +1651,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="15.75">
-      <c r="B12" s="85"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1671,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="15.75">
-      <c r="B13" s="86"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="12" t="s">
         <v>21</v>
       </c>
@@ -1626,17 +1691,17 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="15.75">
-      <c r="B14" s="100"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="97"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="15.75">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="93" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -1658,7 +1723,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" ht="15.75">
-      <c r="B16" s="88"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
@@ -1678,7 +1743,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="15.75">
-      <c r="B17" s="88"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="31" t="s">
         <v>28</v>
       </c>
@@ -1698,7 +1763,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15.75">
-      <c r="B18" s="88"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
@@ -1718,7 +1783,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="15.75">
-      <c r="B19" s="101"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="32" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1813,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="15.75">
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="88" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -1770,7 +1835,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="15.75">
-      <c r="B22" s="87"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="30" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1855,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="15.75">
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
@@ -1810,7 +1875,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="15.75">
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="32" t="s">
         <v>39</v>
       </c>
@@ -1830,7 +1895,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="15.75">
-      <c r="B25" s="87"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="32" t="s">
         <v>40</v>
       </c>
@@ -1850,7 +1915,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="15.75">
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="32" t="s">
         <v>41</v>
       </c>
@@ -1880,7 +1945,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="15.75">
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="104" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -1902,7 +1967,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="15.75">
-      <c r="B29" s="85"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="22" t="s">
         <v>47</v>
       </c>
@@ -1922,7 +1987,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="15.75">
-      <c r="B30" s="85"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="12" t="s">
         <v>48</v>
       </c>
@@ -1942,7 +2007,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" ht="15.75">
-      <c r="B31" s="85"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="7" t="s">
         <v>49</v>
       </c>
@@ -1962,7 +2027,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" ht="15.75">
-      <c r="B32" s="85"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
@@ -1982,7 +2047,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" ht="15.75">
-      <c r="B33" s="85"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="12" t="s">
         <v>51</v>
       </c>
@@ -2002,7 +2067,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="15.75">
-      <c r="B34" s="85"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="12" t="s">
         <v>52</v>
       </c>
@@ -2022,7 +2087,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" ht="15.75">
-      <c r="B35" s="86"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="12" t="s">
         <v>53</v>
       </c>
@@ -2052,7 +2117,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" ht="15.75">
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="100" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="51" t="s">
@@ -2074,7 +2139,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" ht="15.75">
-      <c r="B38" s="85"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="51" t="s">
         <v>58</v>
       </c>
@@ -2094,7 +2159,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="2:9" ht="15.75">
-      <c r="B39" s="85"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="52" t="s">
         <v>59</v>
       </c>
@@ -2114,7 +2179,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="2:9" ht="15.75">
-      <c r="B40" s="85"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="52" t="s">
         <v>60</v>
       </c>
@@ -2134,7 +2199,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="2:9" ht="15.75">
-      <c r="B41" s="85"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="53" t="s">
         <v>61</v>
       </c>
@@ -2144,7 +2209,7 @@
       <c r="E41" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="69" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="14" t="s">
@@ -2154,7 +2219,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="2:9" ht="15.75">
-      <c r="B42" s="94"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="59" t="s">
         <v>62</v>
       </c>
@@ -2174,7 +2239,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="2:9" ht="15.75">
-      <c r="B43" s="85"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="51" t="s">
         <v>63</v>
       </c>
@@ -2194,7 +2259,7 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="2:9" ht="15.75">
-      <c r="B44" s="85"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="53" t="s">
         <v>64</v>
       </c>
@@ -2214,7 +2279,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="2:9" ht="15.75">
-      <c r="B45" s="85"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="53" t="s">
         <v>65</v>
       </c>
@@ -2234,17 +2299,17 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="2:9" ht="15.75">
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="97"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="91"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="2:9" ht="15.75">
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="100" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="51" t="s">
@@ -2256,7 +2321,7 @@
       <c r="E47" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="74" t="s">
+      <c r="F47" s="71" t="s">
         <v>69</v>
       </c>
       <c r="G47" s="21" t="s">
@@ -2266,7 +2331,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="2:9" ht="15.75">
-      <c r="B48" s="85"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="52" t="s">
         <v>70</v>
       </c>
@@ -2276,7 +2341,7 @@
       <c r="E48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="74" t="s">
+      <c r="F48" s="71" t="s">
         <v>69</v>
       </c>
       <c r="G48" s="9" t="s">
@@ -2286,7 +2351,7 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" ht="15.75">
-      <c r="B49" s="85"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="54" t="s">
         <v>71</v>
       </c>
@@ -2296,7 +2361,7 @@
       <c r="E49" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="71" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="16" t="s">
@@ -2306,17 +2371,17 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="2:9" ht="15.75">
-      <c r="B50" s="82"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="98"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="107"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="2:9" ht="15.75">
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="103" t="s">
         <v>72</v>
       </c>
       <c r="C51" s="55" t="s">
@@ -2325,24 +2390,24 @@
       <c r="D51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="79" t="s">
+      <c r="E51" s="75" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="80" t="s">
+      <c r="G51" s="76" t="s">
         <v>22</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" ht="15.75">
-      <c r="B52" s="94"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="73" t="s">
+      <c r="D52" s="70" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="21" t="s">
@@ -2358,11 +2423,11 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="2:9" ht="15.75">
-      <c r="B53" s="94"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="73" t="s">
+      <c r="D53" s="70" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="21" t="s">
@@ -2378,11 +2443,11 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="2:9" ht="15.75">
-      <c r="B54" s="94"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="70" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="21" t="s">
@@ -2398,7 +2463,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="2:9" ht="15.75">
-      <c r="B55" s="85"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="57" t="s">
         <v>80</v>
       </c>
@@ -2418,7 +2483,7 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="2:9" ht="15.75">
-      <c r="B56" s="85"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="51" t="s">
         <v>81</v>
       </c>
@@ -2438,29 +2503,29 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="2:9" ht="15.75">
-      <c r="B57" s="82"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="98"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="107"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:9" ht="15.75">
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="75" t="s">
+      <c r="E58" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="77" t="s">
+      <c r="F58" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G58" s="9" t="s">
@@ -2470,57 +2535,57 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="2:9" ht="15.75">
-      <c r="B59" s="85"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="100"/>
+      <c r="C59" s="59" t="s">
         <v>85</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="77" t="s">
+      <c r="F59" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="19" t="s">
+      <c r="G59" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="2:9" ht="15.75">
-      <c r="B60" s="85"/>
-      <c r="C60" s="52" t="s">
+      <c r="B60" s="100"/>
+      <c r="C60" s="59" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="77" t="s">
+      <c r="F60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="2:9" ht="15.75">
-      <c r="B61" s="85"/>
-      <c r="C61" s="51" t="s">
+      <c r="B61" s="100"/>
+      <c r="C61" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="19" t="s">
+      <c r="D61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="77" t="s">
+      <c r="F61" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G61" s="9" t="s">
@@ -2530,37 +2595,37 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="2:9" ht="15.75">
-      <c r="B62" s="85"/>
-      <c r="C62" s="51" t="s">
+      <c r="B62" s="100"/>
+      <c r="C62" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="2:9" ht="15.75">
-      <c r="B63" s="85"/>
-      <c r="C63" s="52" t="s">
+      <c r="B63" s="100"/>
+      <c r="C63" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="77" t="s">
+      <c r="F63" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G63" s="9" t="s">
@@ -2570,17 +2635,17 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="2:9" ht="15.75">
-      <c r="B64" s="86"/>
-      <c r="C64" s="52" t="s">
+      <c r="B64" s="100"/>
+      <c r="C64" s="59" t="s">
         <v>89</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="77" t="s">
+      <c r="F64" s="80" t="s">
         <v>84</v>
       </c>
       <c r="G64" s="9" t="s">
@@ -2590,614 +2655,818 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="2:9" ht="15.75">
-      <c r="B65" s="85"/>
-      <c r="C65" s="53" t="s">
+      <c r="B65" s="100"/>
+      <c r="C65" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="D65" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="45"/>
-      <c r="G65" s="14" t="s">
+      <c r="F65" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="2:9" ht="15.75">
-      <c r="B66" s="82"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="98"/>
+      <c r="B66" s="100"/>
+      <c r="C66" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="2:9" ht="15.75">
-      <c r="B67" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="58" t="s">
+      <c r="B67" s="100"/>
+      <c r="C67" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" s="9"/>
+      <c r="D67" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="83" t="s">
+        <v>84</v>
+      </c>
       <c r="G67" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="2:9" ht="15.75">
-      <c r="B68" s="87"/>
-      <c r="C68" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="44"/>
-      <c r="G68" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="B68" s="105"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="109"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="2:9" ht="15.75">
-      <c r="B69" s="87"/>
-      <c r="C69" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="14" t="s">
+      <c r="B69" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14" t="s">
-        <v>16</v>
+      <c r="C69" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="61" t="s">
+        <v>22</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="2:9" ht="15.75">
-      <c r="B70" s="88"/>
-      <c r="C70" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="66" t="s">
-        <v>42</v>
+      <c r="B70" s="103"/>
+      <c r="C70" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>27</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="61"/>
-      <c r="G70" s="9" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="60" t="s">
+        <v>16</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="2:9" ht="15.75">
-      <c r="B71" s="89"/>
-      <c r="C71" s="78" t="s">
+      <c r="B71" s="100"/>
+      <c r="C71" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="76" t="s">
-        <v>10</v>
+      <c r="D71" s="86" t="s">
+        <v>79</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="81"/>
-      <c r="G71" s="19" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="77" t="s">
+        <v>12</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="2:9" ht="15.75">
-      <c r="B72" s="82"/>
-      <c r="C72" s="91"/>
-      <c r="D72" s="91"/>
-      <c r="E72" s="91"/>
-      <c r="F72" s="91"/>
-      <c r="G72" s="99"/>
+      <c r="B72" s="100"/>
+      <c r="C72" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="61" t="s">
+        <v>16</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="2:9" ht="15.75">
-      <c r="B73" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>10</v>
+      <c r="B73" s="100"/>
+      <c r="C73" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="63" t="s">
+        <v>42</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="61" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="2:9" ht="15.75">
-      <c r="B74" s="94"/>
-      <c r="C74" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="B74" s="100"/>
+      <c r="C74" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D74" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="62" t="s">
-        <v>22</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="2:9" ht="15.75">
-      <c r="B75" s="94"/>
-      <c r="C75" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="46"/>
-      <c r="G75" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B75" s="105"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="110"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="2:9" ht="15.75">
-      <c r="B76" s="94"/>
-      <c r="C76" s="27" t="s">
+      <c r="B76" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="9" t="s">
+      <c r="F76" s="9"/>
+      <c r="G76" s="60" t="s">
         <v>99</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="63" t="s">
-        <v>22</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="2:9" ht="15.75">
-      <c r="B77" s="82"/>
-      <c r="C77" s="90"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="84"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="60" t="s">
+        <v>12</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="2:9" ht="15.75">
-      <c r="B78" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="58" t="s">
+      <c r="B78" s="103"/>
+      <c r="C78" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="64" t="s">
-        <v>10</v>
+      <c r="D78" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="65"/>
-      <c r="G78" s="24" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="F78" s="14"/>
+      <c r="G78" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="2:9" ht="15.75">
-      <c r="B79" s="85"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="66" t="s">
-        <v>10</v>
+        <v>105</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="61"/>
-      <c r="G79" s="9" t="s">
-        <v>22</v>
+        <v>102</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="2:9" ht="15.75">
-      <c r="B80" s="85"/>
-      <c r="C80" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="66" t="s">
-        <v>10</v>
+      <c r="B80" s="103"/>
+      <c r="C80" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="67"/>
-      <c r="G80" s="9" t="s">
-        <v>22</v>
+        <v>102</v>
+      </c>
+      <c r="F80" s="14"/>
+      <c r="G80" s="60" t="s">
+        <v>12</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="2:10" ht="15.75">
-      <c r="B81" s="82"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="84"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="61" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="2:10" ht="15.75">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="103"/>
+      <c r="C82" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F82" s="43"/>
-      <c r="G82" s="19" t="s">
-        <v>76</v>
+      <c r="D82" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="G82" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="82"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="84"/>
+    <row r="83" spans="2:10" ht="15.75">
+      <c r="B83" s="103"/>
+      <c r="C83" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
     </row>
     <row r="84" spans="2:10" ht="15.75">
-      <c r="B84" s="85" t="s">
+      <c r="B84" s="105"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75">
+      <c r="B85" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="D85" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="2:10" ht="15.75">
+      <c r="B86" s="103"/>
+      <c r="C86" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="2:10" ht="15.75">
-      <c r="B85" s="85"/>
-      <c r="C85" s="52" t="s">
+      <c r="D86" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="2:10" ht="15.75">
+      <c r="B87" s="103"/>
+      <c r="C87" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F85" s="46"/>
-      <c r="G85" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="15.75">
-      <c r="B86" s="85"/>
-      <c r="C86" s="71" t="s">
+      <c r="D87" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="2:10" ht="15.75">
+      <c r="B88" s="100"/>
+      <c r="C88" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" ht="15.75">
-      <c r="B87" s="85"/>
-      <c r="C87" s="53" t="s">
+      <c r="D88" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="77"/>
+      <c r="G88" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" ht="15.75">
+      <c r="B89" s="100"/>
+      <c r="C89" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F87" s="45"/>
-      <c r="G87" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" s="82"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="84"/>
-    </row>
-    <row r="89" spans="2:10" ht="15.75">
-      <c r="B89" s="85" t="s">
+      <c r="D89" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F89" s="64"/>
+      <c r="G89" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="2:10" ht="15.75">
+      <c r="B90" s="105"/>
+      <c r="C90" s="111"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="113"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" ht="15.75">
+      <c r="B91" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C91" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="62" t="s">
+      <c r="D91" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="F89" s="43"/>
-      <c r="G89" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" ht="15.75">
-      <c r="B90" s="85"/>
-      <c r="C90" s="53" t="s">
+      <c r="F91" s="43"/>
+      <c r="G91" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="105"/>
+      <c r="C92" s="111"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="111"/>
+      <c r="F92" s="111"/>
+      <c r="G92" s="112"/>
+    </row>
+    <row r="93" spans="2:10" ht="15.75">
+      <c r="B93" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="44"/>
-      <c r="G90" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" ht="15.75">
-      <c r="B91" s="85"/>
-      <c r="C91" s="53" t="s">
+      <c r="C93" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="45"/>
-      <c r="G91" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="93"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="84"/>
-    </row>
-    <row r="93" spans="2:10" ht="15.75">
-      <c r="B93" s="85" t="s">
+      <c r="D93" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="F93" s="43"/>
+      <c r="G93" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="2:10" ht="15.75">
+      <c r="B94" s="100"/>
+      <c r="C94" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="19" t="s">
+      <c r="D94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="46"/>
+      <c r="G94" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="15.75">
+      <c r="B95" s="100"/>
+      <c r="C95" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" ht="15.75">
-      <c r="B94" s="85"/>
-      <c r="C94" s="57" t="s">
+      <c r="D95" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="15.75">
+      <c r="B96" s="100"/>
+      <c r="C96" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" ht="15.75">
-      <c r="B95" s="85"/>
-      <c r="C95" s="57" t="s">
+      <c r="D96" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="105"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
+      <c r="G97" s="112"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75">
+      <c r="B98" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" ht="15.75">
-      <c r="B96" s="85"/>
-      <c r="C96" s="51" t="s">
+      <c r="C98" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="82"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="84"/>
-    </row>
-    <row r="98" spans="2:7" ht="15.75">
-      <c r="B98" s="85" t="s">
+      <c r="D98" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="F98" s="43"/>
+      <c r="G98" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75">
+      <c r="B99" s="100"/>
+      <c r="C99" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="19" t="s">
+      <c r="D99" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="44"/>
+      <c r="G99" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="15.75">
+      <c r="B100" s="100"/>
+      <c r="C100" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="9" t="s">
+      <c r="D100" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="114"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="112"/>
+    </row>
+    <row r="102" spans="2:7" ht="15.75">
+      <c r="B102" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="27"/>
+      <c r="G102" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="15.75">
+      <c r="B103" s="100"/>
+      <c r="C103" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F103" s="27"/>
+      <c r="G103" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="15.75">
+      <c r="B104" s="100"/>
+      <c r="C104" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="66"/>
+      <c r="G104" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="15.75">
+      <c r="B105" s="100"/>
+      <c r="C105" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="105"/>
+      <c r="C106" s="111"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="112"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75">
+      <c r="B107" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="15.75">
-      <c r="B99" s="85"/>
-      <c r="C99" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F99" s="46"/>
-      <c r="G99" s="9" t="s">
+    <row r="108" spans="2:7" ht="15.75">
+      <c r="B108" s="100"/>
+      <c r="C108" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="46"/>
+      <c r="G108" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="15.75">
-      <c r="B100" s="85"/>
-      <c r="C100" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F100" s="46"/>
-      <c r="G100" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="15.75">
-      <c r="B101" s="85"/>
-      <c r="C101" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F101" s="46"/>
-      <c r="G101" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="82"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="84"/>
-    </row>
-    <row r="103" spans="2:7" ht="15.75">
-      <c r="B103" s="6" t="s">
+    <row r="109" spans="2:7" ht="15.75">
+      <c r="B109" s="100"/>
+      <c r="C109" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="46"/>
+      <c r="G109" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="15.75">
+      <c r="B110" s="100"/>
+      <c r="C110" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="9" t="s">
+      <c r="D110" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="46"/>
+      <c r="G110" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="105"/>
+      <c r="C111" s="111"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="G111" s="112"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75">
+      <c r="B112" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F112" s="43"/>
+      <c r="G112" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B85:B89"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="B58:B67"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B14:G14"/>
@@ -3212,30 +3481,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B93:B96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
